--- a/public/projects/aLuu-BKHN-TSN/Báo giá & Báo phí LAZINET làm Logo BKHN-TSN.xlsx
+++ b/public/projects/aLuu-BKHN-TSN/Báo giá & Báo phí LAZINET làm Logo BKHN-TSN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev_SW\lazinet-fullstack\lazinet-frontend\public\projects\aLuu-BKHN-TSN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F0CDAFF-4DD4-4977-9559-7C415B50FA82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A81892A3-ADF5-4C68-A40E-F94C5B3590C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{7F9164D6-008F-4EC7-8314-381C95AD2504}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="48">
   <si>
     <t>Tổng cộng</t>
   </si>
@@ -257,6 +257,12 @@
 - Gửi bản dựng BKHN-TSN_20251219.pdf
 - Gửi bản dựng BKHN-TSN_20251220.pdf
 - Nhận bản gốc Logo BKHN-Alumni và tái cấu trúc lại thành phần Logo</t>
+  </si>
+  <si>
+    <t>Báo giá chưa bao gồm các phần: Tạo banner, tạo bìa hồ sơ, tạo thiệp, tạo form thư mời, tạo thư chúc mừng, …</t>
+  </si>
+  <si>
+    <t>LAZINET triển khai đóng gói lưu trữ trên nền tảng LAZINET miễn phí trong vòng 1 năm.</t>
   </si>
 </sst>
 </file>
@@ -513,6 +519,51 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -528,56 +579,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1018,8 +1024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06C65D86-A8C6-4197-909E-74E8D5606455}">
   <dimension ref="B1:E37"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="40" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28:E28"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="40" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1040,24 +1046,24 @@
     </row>
     <row r="2" spans="2:5" ht="30.75" x14ac:dyDescent="0.45">
       <c r="B2" s="3"/>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="29"/>
+      <c r="D2" s="20"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="30"/>
+      <c r="D3" s="21"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="32"/>
+      <c r="D4" s="25"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
@@ -1066,10 +1072,10 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="22"/>
+      <c r="D6" s="37"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
@@ -1078,17 +1084,17 @@
     </row>
     <row r="8" spans="2:5" ht="45.75" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="33"/>
+      <c r="D8" s="26"/>
     </row>
     <row r="9" spans="2:5" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="34"/>
+      <c r="D9" s="27"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
@@ -1099,21 +1105,21 @@
       <c r="B11" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
     </row>
     <row r="12" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
@@ -1121,14 +1127,14 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="2:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="35" t="str">
+      <c r="B14" s="28" t="str">
         <f>"CÔNG TY TNHH CÔNG NGHỆ ỨNG DỤNG LAZINET KÍNH GỬI ĐẾN "&amp;C11&amp;CHAR(10)&amp;" BẢNG BÁO GIÁ DỊCH VỤ "&amp;C12</f>
         <v>CÔNG TY TNHH CÔNG NGHỆ ỨNG DỤNG LAZINET KÍNH GỬI ĐẾN CỘNG ĐỒNG BÁCH KHOA HÀ NỘI KHU VỰC TÂN SƠN NHẤT (BKHN-TSN)
  BẢNG BÁO GIÁ DỊCH VỤ THIẾT KẾ LOGO CỘNG ĐỒNG BKHN-TSN</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
@@ -1150,7 +1156,7 @@
       </c>
     </row>
     <row r="17" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="22" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="13" t="s">
@@ -1164,7 +1170,7 @@
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="31"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="13" t="s">
         <v>23</v>
       </c>
@@ -1188,7 +1194,7 @@
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="22" t="s">
         <v>21</v>
       </c>
       <c r="C20" s="13" t="s">
@@ -1217,8 +1223,8 @@
       <c r="B22" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="26"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="39"/>
       <c r="E22" s="16">
         <f>SUM(E17:E21)</f>
         <v>2500000</v>
@@ -1236,10 +1242,10 @@
       <c r="C26" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="28" t="s">
+      <c r="D26" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="28"/>
+      <c r="E26" s="32"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="10">
@@ -1248,92 +1254,90 @@
       <c r="C27" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="28" t="s">
+      <c r="D27" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="28"/>
+      <c r="E27" s="32"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="18">
+      <c r="B28" s="33">
         <v>3</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="28" t="s">
+      <c r="D28" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="28"/>
+      <c r="E28" s="32"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="19"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="28" t="s">
+      <c r="B29" s="34"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="E29" s="28"/>
+      <c r="E29" s="32"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="18">
+      <c r="B30" s="33">
         <v>4</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="C30" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="28" t="s">
+      <c r="D30" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="28"/>
+      <c r="E30" s="32"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="19"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="28" t="s">
+      <c r="B31" s="34"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="E31" s="28"/>
+      <c r="E31" s="32"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C32" s="7"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C33" s="7"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C34" s="7"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C35" s="7"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C36" s="7"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C37" s="7"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C22:D22"/>
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D27:E27"/>
@@ -1346,13 +1350,15 @@
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="D36:E36"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="52" orientation="portrait" r:id="rId1"/>
@@ -1364,8 +1370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECD4504F-010E-48D9-9C42-C28D3B7F4279}">
   <dimension ref="B1:E38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="40" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScaleNormal="40" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1386,24 +1392,24 @@
     </row>
     <row r="2" spans="2:5" ht="30.75" x14ac:dyDescent="0.45">
       <c r="B2" s="3"/>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="29"/>
+      <c r="D2" s="20"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="30"/>
+      <c r="D3" s="21"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="32"/>
+      <c r="D4" s="25"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
@@ -1412,10 +1418,10 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="22"/>
+      <c r="D6" s="37"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
@@ -1424,17 +1430,17 @@
     </row>
     <row r="8" spans="2:5" ht="45.75" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="33"/>
+      <c r="D8" s="26"/>
     </row>
     <row r="9" spans="2:5" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="34"/>
+      <c r="D9" s="27"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
@@ -1445,21 +1451,21 @@
       <c r="B11" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
     </row>
     <row r="12" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
@@ -1467,14 +1473,14 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="2:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="35" t="str">
+      <c r="B14" s="28" t="str">
         <f>"CÔNG TY TNHH CÔNG NGHỆ ỨNG DỤNG LAZINET KÍNH GỬI ĐẾN "&amp;C11&amp;CHAR(10)&amp;" BẢNG BÁO PHÍ HOÀN THIỆN DỊCH VỤ "&amp;C12</f>
         <v>CÔNG TY TNHH CÔNG NGHỆ ỨNG DỤNG LAZINET KÍNH GỬI ĐẾN CỘNG ĐỒNG BÁCH KHOA HÀ NỘI KHU VỰC TÂN SƠN NHẤT (BKHN-TSN)
  BẢNG BÁO PHÍ HOÀN THIỆN DỊCH VỤ THIẾT KẾ LOGO CỘNG ĐỒNG BKHN-TSN</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
@@ -1496,7 +1502,7 @@
       </c>
     </row>
     <row r="17" spans="2:5" ht="180" x14ac:dyDescent="0.25">
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="22" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="13" t="s">
@@ -1510,7 +1516,7 @@
       </c>
     </row>
     <row r="18" spans="2:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="B18" s="31"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="13" t="s">
         <v>23</v>
       </c>
@@ -1522,14 +1528,14 @@
       </c>
     </row>
     <row r="19" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B19" s="31"/>
-      <c r="C19" s="38" t="s">
+      <c r="B19" s="23"/>
+      <c r="C19" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="38" t="s">
+      <c r="D19" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="39">
+      <c r="E19" s="19">
         <v>500000</v>
       </c>
     </row>
@@ -1546,7 +1552,7 @@
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="22" t="s">
         <v>21</v>
       </c>
       <c r="C21" s="13" t="s">
@@ -1575,8 +1581,8 @@
       <c r="B23" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="25"/>
-      <c r="D23" s="26"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="39"/>
       <c r="E23" s="16">
         <f>SUM(E17:E22)</f>
         <v>3000000</v>
@@ -1594,10 +1600,10 @@
       <c r="C27" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="28" t="s">
+      <c r="D27" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="28"/>
+      <c r="E27" s="32"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="10">
@@ -1606,83 +1612,99 @@
       <c r="C28" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D28" s="28" t="s">
+      <c r="D28" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="E28" s="28"/>
+      <c r="E28" s="32"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="18">
+      <c r="B29" s="33">
         <v>3</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" s="28"/>
+      <c r="D29" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="32"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="19"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="28" t="s">
+      <c r="B30" s="34"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="E30" s="28"/>
+      <c r="E30" s="32"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="18">
+      <c r="B31" s="33">
         <v>4</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C31" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="E31" s="28"/>
+      <c r="D31" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" s="32"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="19"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="28" t="s">
+      <c r="B32" s="34"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="E32" s="28"/>
+      <c r="E32" s="32"/>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C33" s="7"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C34" s="7"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C35" s="7"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C36" s="7"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C37" s="7"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C38" s="7"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
@@ -1695,22 +1717,6 @@
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="B17:B20"/>
     <mergeCell ref="B21:B22"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="52" orientation="portrait" r:id="rId1"/>

--- a/public/projects/aLuu-BKHN-TSN/Báo giá & Báo phí LAZINET làm Logo BKHN-TSN.xlsx
+++ b/public/projects/aLuu-BKHN-TSN/Báo giá & Báo phí LAZINET làm Logo BKHN-TSN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev_SW\lazinet-fullstack\lazinet-frontend\public\projects\aLuu-BKHN-TSN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A81892A3-ADF5-4C68-A40E-F94C5B3590C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F307E8-DAEE-45B5-B145-8BCECE5A3AD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{7F9164D6-008F-4EC7-8314-381C95AD2504}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="53">
   <si>
     <t>Tổng cộng</t>
   </si>
@@ -264,6 +264,21 @@
   <si>
     <t>LAZINET triển khai đóng gói lưu trữ trên nền tảng LAZINET miễn phí trong vòng 1 năm.</t>
   </si>
+  <si>
+    <t>1c. Triển khai ý tưởng (Concept) lần 1</t>
+  </si>
+  <si>
+    <t>1c. Triển khai ý tưởng (Concept) lần 2</t>
+  </si>
+  <si>
+    <t>Link bàn giao</t>
+  </si>
+  <si>
+    <t>https://lazinet.com/projects/aLuu-BKHN-TSN/Logo-BKHN-TSN</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/u/0/folders/15AHZUH-PUHx7awt9Jjrav9rDsteSLjBX</t>
+  </si>
 </sst>
 </file>
 
@@ -273,7 +288,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -356,8 +371,16 @@
       <color theme="0"/>
       <name val="Roboto"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -373,12 +396,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF6600"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,11 +485,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -519,11 +537,38 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -531,15 +576,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -558,36 +597,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1046,24 +1069,24 @@
     </row>
     <row r="2" spans="2:5" ht="30.75" x14ac:dyDescent="0.45">
       <c r="B2" s="3"/>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="20"/>
+      <c r="D2" s="29"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="21"/>
+      <c r="D3" s="30"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="25"/>
+      <c r="D4" s="32"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
@@ -1072,10 +1095,10 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="37"/>
+      <c r="D6" s="22"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
@@ -1084,17 +1107,17 @@
     </row>
     <row r="8" spans="2:5" ht="45.75" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="26"/>
+      <c r="D8" s="33"/>
     </row>
     <row r="9" spans="2:5" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="27"/>
+      <c r="D9" s="34"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
@@ -1105,21 +1128,21 @@
       <c r="B11" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
     </row>
     <row r="12" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
@@ -1127,14 +1150,14 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="2:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="28" t="str">
+      <c r="B14" s="35" t="str">
         <f>"CÔNG TY TNHH CÔNG NGHỆ ỨNG DỤNG LAZINET KÍNH GỬI ĐẾN "&amp;C11&amp;CHAR(10)&amp;" BẢNG BÁO GIÁ DỊCH VỤ "&amp;C12</f>
         <v>CÔNG TY TNHH CÔNG NGHỆ ỨNG DỤNG LAZINET KÍNH GỬI ĐẾN CỘNG ĐỒNG BÁCH KHOA HÀ NỘI KHU VỰC TÂN SƠN NHẤT (BKHN-TSN)
  BẢNG BÁO GIÁ DỊCH VỤ THIẾT KẾ LOGO CỘNG ĐỒNG BKHN-TSN</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
@@ -1156,7 +1179,7 @@
       </c>
     </row>
     <row r="17" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="13" t="s">
@@ -1170,7 +1193,7 @@
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="23"/>
+      <c r="B18" s="31"/>
       <c r="C18" s="13" t="s">
         <v>23</v>
       </c>
@@ -1194,7 +1217,7 @@
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="23" t="s">
         <v>21</v>
       </c>
       <c r="C20" s="13" t="s">
@@ -1223,8 +1246,8 @@
       <c r="B22" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="38"/>
-      <c r="D22" s="39"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="26"/>
       <c r="E22" s="16">
         <f>SUM(E17:E21)</f>
         <v>2500000</v>
@@ -1242,10 +1265,10 @@
       <c r="C26" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="32" t="s">
+      <c r="D26" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="32"/>
+      <c r="E26" s="28"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="10">
@@ -1254,90 +1277,92 @@
       <c r="C27" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="32" t="s">
+      <c r="D27" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="32"/>
+      <c r="E27" s="28"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="33">
+      <c r="B28" s="18">
         <v>3</v>
       </c>
-      <c r="C28" s="35" t="s">
+      <c r="C28" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="32" t="s">
+      <c r="D28" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="32"/>
+      <c r="E28" s="28"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="34"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="32" t="s">
+      <c r="B29" s="19"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="E29" s="32"/>
+      <c r="E29" s="28"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="33">
+      <c r="B30" s="18">
         <v>4</v>
       </c>
-      <c r="C30" s="35" t="s">
+      <c r="C30" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="32" t="s">
+      <c r="D30" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="32"/>
+      <c r="E30" s="28"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="34"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="32" t="s">
+      <c r="B31" s="19"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="E31" s="32"/>
+      <c r="E31" s="28"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C32" s="7"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C33" s="7"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C34" s="7"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C35" s="7"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C36" s="7"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C37" s="7"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D27:E27"/>
@@ -1350,15 +1375,13 @@
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="D36:E36"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C22:D22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="52" orientation="portrait" r:id="rId1"/>
@@ -1368,10 +1391,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECD4504F-010E-48D9-9C42-C28D3B7F4279}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B1:E38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScaleNormal="40" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32:E32"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection sqref="A1:F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1392,24 +1418,24 @@
     </row>
     <row r="2" spans="2:5" ht="30.75" x14ac:dyDescent="0.45">
       <c r="B2" s="3"/>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="20"/>
+      <c r="D2" s="29"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="21"/>
+      <c r="D3" s="30"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="25"/>
+      <c r="D4" s="32"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
@@ -1418,10 +1444,10 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="37"/>
+      <c r="D6" s="22"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
@@ -1430,17 +1456,17 @@
     </row>
     <row r="8" spans="2:5" ht="45.75" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="26"/>
+      <c r="D8" s="33"/>
     </row>
     <row r="9" spans="2:5" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="27"/>
+      <c r="D9" s="34"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
@@ -1451,21 +1477,21 @@
       <c r="B11" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
     </row>
     <row r="12" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
@@ -1473,14 +1499,14 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="2:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="28" t="str">
+      <c r="B14" s="35" t="str">
         <f>"CÔNG TY TNHH CÔNG NGHỆ ỨNG DỤNG LAZINET KÍNH GỬI ĐẾN "&amp;C11&amp;CHAR(10)&amp;" BẢNG BÁO PHÍ HOÀN THIỆN DỊCH VỤ "&amp;C12</f>
         <v>CÔNG TY TNHH CÔNG NGHỆ ỨNG DỤNG LAZINET KÍNH GỬI ĐẾN CỘNG ĐỒNG BÁCH KHOA HÀ NỘI KHU VỰC TÂN SƠN NHẤT (BKHN-TSN)
  BẢNG BÁO PHÍ HOÀN THIỆN DỊCH VỤ THIẾT KẾ LOGO CỘNG ĐỒNG BKHN-TSN</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
@@ -1502,7 +1528,7 @@
       </c>
     </row>
     <row r="17" spans="2:5" ht="180" x14ac:dyDescent="0.25">
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="13" t="s">
@@ -1516,7 +1542,7 @@
       </c>
     </row>
     <row r="18" spans="2:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="B18" s="23"/>
+      <c r="B18" s="31"/>
       <c r="C18" s="13" t="s">
         <v>23</v>
       </c>
@@ -1528,21 +1554,21 @@
       </c>
     </row>
     <row r="19" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B19" s="23"/>
-      <c r="C19" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="18" t="s">
+      <c r="B19" s="31"/>
+      <c r="C19" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E19" s="39">
         <v>500000</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B20" s="24"/>
       <c r="C20" s="13" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>42</v>
@@ -1552,7 +1578,7 @@
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="23" t="s">
         <v>21</v>
       </c>
       <c r="C21" s="13" t="s">
@@ -1581,8 +1607,8 @@
       <c r="B23" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="38"/>
-      <c r="D23" s="39"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="26"/>
       <c r="E23" s="16">
         <f>SUM(E17:E22)</f>
         <v>3000000</v>
@@ -1600,10 +1626,10 @@
       <c r="C27" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="32" t="s">
+      <c r="D27" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="32"/>
+      <c r="E27" s="28"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="10">
@@ -1612,99 +1638,90 @@
       <c r="C28" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D28" s="32" t="s">
+      <c r="D28" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="E28" s="32"/>
+      <c r="E28" s="28"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="33">
+      <c r="B29" s="18">
         <v>3</v>
       </c>
-      <c r="C29" s="35" t="s">
+      <c r="C29" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="32" t="s">
+      <c r="D29" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="E29" s="32"/>
+      <c r="E29" s="28"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="34"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="32" t="s">
+      <c r="B30" s="19"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="E30" s="32"/>
+      <c r="E30" s="28"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="33">
+      <c r="B31" s="18">
         <v>4</v>
       </c>
-      <c r="C31" s="35" t="s">
+      <c r="C31" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="32" t="s">
+      <c r="D31" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="E31" s="32"/>
+      <c r="E31" s="28"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="34"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="32" t="s">
+      <c r="B32" s="19"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="E32" s="32"/>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E32" s="28"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C33" s="7"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C34" s="7"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-    </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="C35" s="7"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-    </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C36" s="7"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-    </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C37" s="7"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-    </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C38" s="7"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C37" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" s="41"/>
+      <c r="E37" s="41"/>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C38" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="D38" s="41"/>
+      <c r="E38" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
+  <mergeCells count="26">
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
@@ -1717,9 +1734,27 @@
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="B17:B20"/>
     <mergeCell ref="B21:B22"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="52" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <hyperlinks>
+    <hyperlink ref="C37" r:id="rId1" xr:uid="{8D9292F0-F9C7-4A5E-A36A-DFC61E926324}"/>
+    <hyperlink ref="C38" r:id="rId2" xr:uid="{F3EE5630-3231-43A0-877B-A58304F9C780}"/>
+  </hyperlinks>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="52" fitToHeight="0" orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>